--- a/archivoUnificadoCRD.xlsx
+++ b/archivoUnificadoCRD.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -680,7 +680,11 @@
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
@@ -810,7 +814,11 @@
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
@@ -940,7 +948,11 @@
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
@@ -1070,7 +1082,11 @@
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
@@ -1200,7 +1216,11 @@
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
@@ -1330,7 +1350,11 @@
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
@@ -1460,7 +1484,11 @@
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
@@ -1590,7 +1618,11 @@
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
@@ -1720,7 +1752,11 @@
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
@@ -1850,7 +1886,11 @@
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
@@ -1980,7 +2020,11 @@
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
@@ -2110,7 +2154,11 @@
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
@@ -2240,7 +2288,11 @@
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
@@ -2374,7 +2426,11 @@
           <t>S/N</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
@@ -2490,7 +2546,11 @@
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
@@ -2614,7 +2674,11 @@
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
@@ -2732,7 +2796,11 @@
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
@@ -2860,7 +2928,11 @@
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
@@ -2984,7 +3056,11 @@
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
@@ -3108,7 +3184,11 @@
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
@@ -3226,7 +3306,11 @@
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
@@ -3344,7 +3428,11 @@
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
@@ -3468,7 +3556,11 @@
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
@@ -3596,7 +3688,11 @@
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
@@ -3720,7 +3816,11 @@
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
@@ -3844,7 +3944,11 @@
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
@@ -3964,7 +4068,11 @@
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>PUERTO DESEADO</t>
+        </is>
+      </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
@@ -4088,7 +4196,11 @@
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
@@ -4212,7 +4324,11 @@
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
@@ -4334,7 +4450,11 @@
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>DON BOSCO</t>
+        </is>
+      </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
@@ -4456,7 +4576,11 @@
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
@@ -4578,7 +4702,11 @@
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
@@ -4700,7 +4828,11 @@
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
@@ -4822,7 +4954,11 @@
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
@@ -4950,7 +5086,11 @@
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
@@ -5072,7 +5212,11 @@
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
@@ -5198,7 +5342,11 @@
           <t>756</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>SARMIENTO</t>
+        </is>
+      </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
@@ -5314,7 +5462,11 @@
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
@@ -5434,7 +5586,11 @@
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
@@ -5464,7 +5620,9 @@
           <t>DIRECTV ARGENTINA SOCIEDAD ANONIMA</t>
         </is>
       </c>
-      <c r="S40" t="inlineStr"/>
+      <c r="S40" t="n">
+        <v>503</v>
+      </c>
       <c r="T40" t="n">
         <v>1</v>
       </c>
@@ -5550,7 +5708,11 @@
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
@@ -5674,7 +5836,11 @@
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
@@ -5794,7 +5960,11 @@
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
@@ -5918,7 +6088,11 @@
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
@@ -6038,7 +6212,11 @@
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
@@ -6068,7 +6246,9 @@
           <t>DIRECTV ARGENTINA SOCIEDAD ANONIMA</t>
         </is>
       </c>
-      <c r="S45" t="inlineStr"/>
+      <c r="S45" t="n">
+        <v>503</v>
+      </c>
       <c r="T45" t="n">
         <v>1</v>
       </c>
@@ -6154,7 +6334,11 @@
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>CALETA OLIVIA</t>
+        </is>
+      </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
@@ -6278,7 +6462,11 @@
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
@@ -6402,7 +6590,11 @@
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
@@ -6526,7 +6718,11 @@
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
@@ -6654,7 +6850,11 @@
           <t>165</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
@@ -6774,7 +6974,11 @@
           <t>165</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
@@ -6890,7 +7094,11 @@
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>LAS HERAS</t>
+        </is>
+      </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
@@ -7018,7 +7226,11 @@
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>PICO TRUNCADO</t>
+        </is>
+      </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
@@ -7142,7 +7354,11 @@
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
@@ -7270,7 +7486,11 @@
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
@@ -7390,7 +7610,11 @@
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
@@ -7514,7 +7738,11 @@
           <t>950</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
@@ -7638,7 +7866,11 @@
           <t>950</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
@@ -7758,7 +7990,11 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>BARRIO GRAL MOSCONI</t>
+        </is>
+      </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
@@ -7878,7 +8114,11 @@
           <t>950</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
@@ -7994,7 +8234,11 @@
         </is>
       </c>
       <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
@@ -8118,7 +8362,11 @@
         </is>
       </c>
       <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
@@ -8242,7 +8490,11 @@
         </is>
       </c>
       <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
@@ -8370,7 +8622,11 @@
           <t>3</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
@@ -8486,7 +8742,11 @@
         </is>
       </c>
       <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr"/>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
@@ -8610,7 +8870,11 @@
           <t>950</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
@@ -8730,7 +8994,11 @@
           <t>950</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
@@ -8846,7 +9114,11 @@
         </is>
       </c>
       <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
@@ -8962,7 +9234,11 @@
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
@@ -9086,7 +9362,11 @@
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
@@ -9210,7 +9490,11 @@
         </is>
       </c>
       <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>BAJO CARACOLES</t>
+        </is>
+      </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
@@ -9332,7 +9616,11 @@
         </is>
       </c>
       <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr"/>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
@@ -9450,7 +9738,11 @@
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
@@ -9570,7 +9862,11 @@
           <t>S/N</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr"/>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
@@ -9686,7 +9982,11 @@
         </is>
       </c>
       <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr"/>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>DON BOSCO</t>
+        </is>
+      </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
@@ -9812,7 +10112,11 @@
         </is>
       </c>
       <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr"/>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
@@ -9934,7 +10238,11 @@
         </is>
       </c>
       <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr"/>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>ALTO RIO SENGUER</t>
+        </is>
+      </c>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
@@ -10060,7 +10368,11 @@
         </is>
       </c>
       <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr"/>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>PUERTO DESEADO</t>
+        </is>
+      </c>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
@@ -10186,7 +10498,11 @@
         </is>
       </c>
       <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr"/>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>PUERTO DESEADO</t>
+        </is>
+      </c>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
@@ -10300,7 +10616,11 @@
         </is>
       </c>
       <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>PERITO MORENO</t>
+        </is>
+      </c>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
@@ -10426,7 +10746,11 @@
         </is>
       </c>
       <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr"/>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
@@ -10552,7 +10876,11 @@
         </is>
       </c>
       <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr"/>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>PUERTO DESEADO</t>
+        </is>
+      </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
@@ -10676,7 +11004,11 @@
         </is>
       </c>
       <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr"/>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>BAJO CARACOLES</t>
+        </is>
+      </c>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
@@ -10804,7 +11136,11 @@
         </is>
       </c>
       <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr"/>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>PUERTO DESEADO</t>
+        </is>
+      </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
@@ -10926,7 +11262,11 @@
         </is>
       </c>
       <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr"/>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>PUERTO DESEADO</t>
+        </is>
+      </c>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr"/>
@@ -11050,7 +11390,11 @@
         </is>
       </c>
       <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr"/>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr"/>
@@ -11178,7 +11522,11 @@
         </is>
       </c>
       <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr"/>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>PUERTO DESEADO</t>
+        </is>
+      </c>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr"/>
@@ -11302,7 +11650,11 @@
         </is>
       </c>
       <c r="D88" t="inlineStr"/>
-      <c r="E88" t="inlineStr"/>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr"/>
@@ -11430,7 +11782,11 @@
         </is>
       </c>
       <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr"/>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>LOS ANTIGUOS</t>
+        </is>
+      </c>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr"/>
@@ -11554,7 +11910,11 @@
         </is>
       </c>
       <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr"/>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>CALETA OLIVIA</t>
+        </is>
+      </c>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
@@ -11678,7 +12038,11 @@
         </is>
       </c>
       <c r="D91" t="inlineStr"/>
-      <c r="E91" t="inlineStr"/>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr"/>
@@ -11806,7 +12170,11 @@
         </is>
       </c>
       <c r="D92" t="inlineStr"/>
-      <c r="E92" t="inlineStr"/>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>RADA TILLY</t>
+        </is>
+      </c>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr"/>
@@ -11930,7 +12298,11 @@
         </is>
       </c>
       <c r="D93" t="inlineStr"/>
-      <c r="E93" t="inlineStr"/>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr"/>
@@ -12054,7 +12426,11 @@
         </is>
       </c>
       <c r="D94" t="inlineStr"/>
-      <c r="E94" t="inlineStr"/>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr"/>
@@ -12178,7 +12554,11 @@
         </is>
       </c>
       <c r="D95" t="inlineStr"/>
-      <c r="E95" t="inlineStr"/>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>PUERTO DESEADO</t>
+        </is>
+      </c>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr"/>
@@ -12302,7 +12682,11 @@
         </is>
       </c>
       <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr"/>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>LAS HERAS</t>
+        </is>
+      </c>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr"/>
@@ -12426,7 +12810,11 @@
         </is>
       </c>
       <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr"/>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr"/>
@@ -12554,7 +12942,11 @@
         </is>
       </c>
       <c r="D98" t="inlineStr"/>
-      <c r="E98" t="inlineStr"/>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr"/>
@@ -12678,7 +13070,11 @@
         </is>
       </c>
       <c r="D99" t="inlineStr"/>
-      <c r="E99" t="inlineStr"/>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr"/>
@@ -12802,7 +13198,11 @@
         </is>
       </c>
       <c r="D100" t="inlineStr"/>
-      <c r="E100" t="inlineStr"/>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr"/>
@@ -12930,7 +13330,11 @@
         </is>
       </c>
       <c r="D101" t="inlineStr"/>
-      <c r="E101" t="inlineStr"/>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>LAS HERAS</t>
+        </is>
+      </c>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr"/>
@@ -13058,7 +13462,11 @@
         </is>
       </c>
       <c r="D102" t="inlineStr"/>
-      <c r="E102" t="inlineStr"/>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>PUERTO DESEADO</t>
+        </is>
+      </c>
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr"/>
@@ -13186,7 +13594,11 @@
         </is>
       </c>
       <c r="D103" t="inlineStr"/>
-      <c r="E103" t="inlineStr"/>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>PICO TRUNCADO</t>
+        </is>
+      </c>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr"/>
@@ -13310,7 +13722,11 @@
         </is>
       </c>
       <c r="D104" t="inlineStr"/>
-      <c r="E104" t="inlineStr"/>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr"/>
@@ -13340,7 +13756,9 @@
           <t>DIRECTV ARGENTINA SOCIEDAD ANONIMA</t>
         </is>
       </c>
-      <c r="S104" t="inlineStr"/>
+      <c r="S104" t="n">
+        <v>503</v>
+      </c>
       <c r="T104" t="n">
         <v>1</v>
       </c>
@@ -13424,7 +13842,11 @@
         </is>
       </c>
       <c r="D105" t="inlineStr"/>
-      <c r="E105" t="inlineStr"/>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>LAS HERAS</t>
+        </is>
+      </c>
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr"/>
@@ -13544,7 +13966,11 @@
         </is>
       </c>
       <c r="D106" t="inlineStr"/>
-      <c r="E106" t="inlineStr"/>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr"/>
@@ -13668,7 +14094,11 @@
           <t>526</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr"/>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr"/>
@@ -13792,7 +14222,11 @@
         </is>
       </c>
       <c r="D108" t="inlineStr"/>
-      <c r="E108" t="inlineStr"/>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr"/>
@@ -13912,7 +14346,11 @@
         </is>
       </c>
       <c r="D109" t="inlineStr"/>
-      <c r="E109" t="inlineStr"/>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>CALETA OLIVIA</t>
+        </is>
+      </c>
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr"/>
@@ -14036,7 +14474,11 @@
         </is>
       </c>
       <c r="D110" t="inlineStr"/>
-      <c r="E110" t="inlineStr"/>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>CALETA OLIVIA</t>
+        </is>
+      </c>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr"/>
@@ -14156,7 +14598,11 @@
         </is>
       </c>
       <c r="D111" t="inlineStr"/>
-      <c r="E111" t="inlineStr"/>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>PICO TRUNCADO</t>
+        </is>
+      </c>
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr"/>
@@ -14280,7 +14726,11 @@
         </is>
       </c>
       <c r="D112" t="inlineStr"/>
-      <c r="E112" t="inlineStr"/>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>PERITO MORENO</t>
+        </is>
+      </c>
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr"/>
@@ -14400,7 +14850,11 @@
         </is>
       </c>
       <c r="D113" t="inlineStr"/>
-      <c r="E113" t="inlineStr"/>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>SARMIENTO</t>
+        </is>
+      </c>
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr"/>
@@ -14524,7 +14978,11 @@
         </is>
       </c>
       <c r="D114" t="inlineStr"/>
-      <c r="E114" t="inlineStr"/>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>CALETA OLIVIA</t>
+        </is>
+      </c>
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr"/>
@@ -14644,7 +15102,11 @@
         </is>
       </c>
       <c r="D115" t="inlineStr"/>
-      <c r="E115" t="inlineStr"/>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr"/>
@@ -14768,7 +15230,11 @@
         </is>
       </c>
       <c r="D116" t="inlineStr"/>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -14894,7 +15360,11 @@
         </is>
       </c>
       <c r="D117" t="inlineStr"/>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>LAS HERAS</t>
+        </is>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -15022,7 +15492,11 @@
         </is>
       </c>
       <c r="D118" t="inlineStr"/>
-      <c r="E118" t="inlineStr"/>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr"/>
@@ -15148,7 +15622,11 @@
         </is>
       </c>
       <c r="D119" t="inlineStr"/>
-      <c r="E119" t="inlineStr"/>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>FACUNDO</t>
+        </is>
+      </c>
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
@@ -15274,7 +15752,11 @@
         </is>
       </c>
       <c r="D120" t="inlineStr"/>
-      <c r="E120" t="inlineStr"/>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr"/>
@@ -15400,7 +15882,11 @@
         </is>
       </c>
       <c r="D121" t="inlineStr"/>
-      <c r="E121" t="inlineStr"/>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>CALETA OLIVIA</t>
+        </is>
+      </c>
       <c r="F121" t="inlineStr"/>
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr"/>
@@ -15526,7 +16012,11 @@
         </is>
       </c>
       <c r="D122" t="inlineStr"/>
-      <c r="E122" t="inlineStr"/>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>RADA TILLY</t>
+        </is>
+      </c>
       <c r="F122" t="inlineStr"/>
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr"/>
@@ -15654,7 +16144,11 @@
         </is>
       </c>
       <c r="D123" t="inlineStr"/>
-      <c r="E123" t="inlineStr"/>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F123" t="inlineStr"/>
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr"/>
@@ -15778,7 +16272,11 @@
         </is>
       </c>
       <c r="D124" t="inlineStr"/>
-      <c r="E124" t="inlineStr"/>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F124" t="inlineStr"/>
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr"/>
@@ -15906,7 +16404,11 @@
         </is>
       </c>
       <c r="D125" t="inlineStr"/>
-      <c r="E125" t="inlineStr"/>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr"/>
@@ -16034,7 +16536,11 @@
         </is>
       </c>
       <c r="D126" t="inlineStr"/>
-      <c r="E126" t="inlineStr"/>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>CALETA OLIVIA</t>
+        </is>
+      </c>
       <c r="F126" t="inlineStr"/>
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr"/>
@@ -16158,7 +16664,11 @@
         </is>
       </c>
       <c r="D127" t="inlineStr"/>
-      <c r="E127" t="inlineStr"/>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F127" t="inlineStr"/>
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="inlineStr"/>
@@ -16282,7 +16792,11 @@
         </is>
       </c>
       <c r="D128" t="inlineStr"/>
-      <c r="E128" t="inlineStr"/>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F128" t="inlineStr"/>
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr"/>
@@ -16404,7 +16918,11 @@
         </is>
       </c>
       <c r="D129" t="inlineStr"/>
-      <c r="E129" t="inlineStr"/>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr"/>
@@ -16526,7 +17044,11 @@
         </is>
       </c>
       <c r="D130" t="inlineStr"/>
-      <c r="E130" t="inlineStr"/>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="inlineStr"/>
@@ -16648,7 +17170,11 @@
         </is>
       </c>
       <c r="D131" t="inlineStr"/>
-      <c r="E131" t="inlineStr"/>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>CALETA OLIVIA</t>
+        </is>
+      </c>
       <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr"/>
@@ -16774,7 +17300,11 @@
         </is>
       </c>
       <c r="D132" t="inlineStr"/>
-      <c r="E132" t="inlineStr"/>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F132" t="inlineStr"/>
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="inlineStr"/>
@@ -16896,7 +17426,11 @@
         </is>
       </c>
       <c r="D133" t="inlineStr"/>
-      <c r="E133" t="inlineStr"/>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>PUERTO DESEADO</t>
+        </is>
+      </c>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="inlineStr"/>
@@ -17018,7 +17552,11 @@
         </is>
       </c>
       <c r="D134" t="inlineStr"/>
-      <c r="E134" t="inlineStr"/>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>SARMIENTO</t>
+        </is>
+      </c>
       <c r="F134" t="inlineStr"/>
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="inlineStr"/>
@@ -17144,7 +17682,11 @@
         </is>
       </c>
       <c r="D135" t="inlineStr"/>
-      <c r="E135" t="inlineStr"/>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F135" t="inlineStr"/>
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="inlineStr"/>
@@ -17262,7 +17804,11 @@
         </is>
       </c>
       <c r="D136" t="inlineStr"/>
-      <c r="E136" t="inlineStr"/>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="inlineStr"/>
@@ -17380,7 +17926,11 @@
         </is>
       </c>
       <c r="D137" t="inlineStr"/>
-      <c r="E137" t="inlineStr"/>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="inlineStr"/>
@@ -17502,7 +18052,11 @@
         </is>
       </c>
       <c r="D138" t="inlineStr"/>
-      <c r="E138" t="inlineStr"/>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F138" t="inlineStr"/>
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="inlineStr"/>
@@ -17624,7 +18178,11 @@
         </is>
       </c>
       <c r="D139" t="inlineStr"/>
-      <c r="E139" t="inlineStr"/>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>CALETA OLIVIA</t>
+        </is>
+      </c>
       <c r="F139" t="inlineStr"/>
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="inlineStr"/>
@@ -17750,7 +18308,11 @@
         </is>
       </c>
       <c r="D140" t="inlineStr"/>
-      <c r="E140" t="inlineStr"/>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>CALETA OLIVIA</t>
+        </is>
+      </c>
       <c r="F140" t="inlineStr"/>
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="inlineStr"/>
@@ -17876,7 +18438,11 @@
         </is>
       </c>
       <c r="D141" t="inlineStr"/>
-      <c r="E141" t="inlineStr"/>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>ALTO RIO SENGUER</t>
+        </is>
+      </c>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr"/>
@@ -17998,7 +18564,11 @@
         </is>
       </c>
       <c r="D142" t="inlineStr"/>
-      <c r="E142" t="inlineStr"/>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F142" t="inlineStr"/>
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr"/>
@@ -18120,7 +18690,11 @@
         </is>
       </c>
       <c r="D143" t="inlineStr"/>
-      <c r="E143" t="inlineStr"/>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>CALETA OLIVIA</t>
+        </is>
+      </c>
       <c r="F143" t="inlineStr"/>
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="inlineStr"/>
@@ -18246,7 +18820,11 @@
         </is>
       </c>
       <c r="D144" t="inlineStr"/>
-      <c r="E144" t="inlineStr"/>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>CALETA OLIVIA</t>
+        </is>
+      </c>
       <c r="F144" t="inlineStr"/>
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="inlineStr"/>
@@ -18372,7 +18950,11 @@
         </is>
       </c>
       <c r="D145" t="inlineStr"/>
-      <c r="E145" t="inlineStr"/>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F145" t="inlineStr"/>
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="inlineStr"/>
@@ -18494,7 +19076,11 @@
         </is>
       </c>
       <c r="D146" t="inlineStr"/>
-      <c r="E146" t="inlineStr"/>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F146" t="inlineStr"/>
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="inlineStr"/>
@@ -18616,7 +19202,11 @@
         </is>
       </c>
       <c r="D147" t="inlineStr"/>
-      <c r="E147" t="inlineStr"/>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F147" t="inlineStr"/>
       <c r="G147" t="inlineStr"/>
       <c r="H147" t="inlineStr"/>
@@ -18738,7 +19328,11 @@
         </is>
       </c>
       <c r="D148" t="inlineStr"/>
-      <c r="E148" t="inlineStr"/>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F148" t="inlineStr"/>
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="inlineStr"/>
@@ -18860,7 +19454,11 @@
         </is>
       </c>
       <c r="D149" t="inlineStr"/>
-      <c r="E149" t="inlineStr"/>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F149" t="inlineStr"/>
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="inlineStr"/>
@@ -18982,7 +19580,11 @@
         </is>
       </c>
       <c r="D150" t="inlineStr"/>
-      <c r="E150" t="inlineStr"/>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>CALETA OLIVIA</t>
+        </is>
+      </c>
       <c r="F150" t="inlineStr"/>
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="inlineStr"/>
@@ -19108,7 +19710,11 @@
         </is>
       </c>
       <c r="D151" t="inlineStr"/>
-      <c r="E151" t="inlineStr"/>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>CAÑADON SECO</t>
+        </is>
+      </c>
       <c r="F151" t="inlineStr"/>
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="inlineStr"/>
@@ -19234,7 +19840,11 @@
         </is>
       </c>
       <c r="D152" t="inlineStr"/>
-      <c r="E152" t="inlineStr"/>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr"/>
       <c r="H152" t="inlineStr"/>
@@ -19356,7 +19966,11 @@
         </is>
       </c>
       <c r="D153" t="inlineStr"/>
-      <c r="E153" t="inlineStr"/>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F153" t="inlineStr"/>
       <c r="G153" t="inlineStr"/>
       <c r="H153" t="inlineStr"/>
@@ -19478,7 +20092,11 @@
         </is>
       </c>
       <c r="D154" t="inlineStr"/>
-      <c r="E154" t="inlineStr"/>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F154" t="inlineStr"/>
       <c r="G154" t="inlineStr"/>
       <c r="H154" t="inlineStr"/>
@@ -19600,7 +20218,11 @@
         </is>
       </c>
       <c r="D155" t="inlineStr"/>
-      <c r="E155" t="inlineStr"/>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F155" t="inlineStr"/>
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="inlineStr"/>
@@ -19722,7 +20344,11 @@
         </is>
       </c>
       <c r="D156" t="inlineStr"/>
-      <c r="E156" t="inlineStr"/>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>CALETA OLIVIA</t>
+        </is>
+      </c>
       <c r="F156" t="inlineStr"/>
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="inlineStr"/>
@@ -19844,7 +20470,11 @@
         </is>
       </c>
       <c r="D157" t="inlineStr"/>
-      <c r="E157" t="inlineStr"/>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>CALETA OLIVIA</t>
+        </is>
+      </c>
       <c r="F157" t="inlineStr"/>
       <c r="G157" t="inlineStr"/>
       <c r="H157" t="inlineStr"/>
@@ -19966,7 +20596,11 @@
         </is>
       </c>
       <c r="D158" t="inlineStr"/>
-      <c r="E158" t="inlineStr"/>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F158" t="inlineStr"/>
       <c r="G158" t="inlineStr"/>
       <c r="H158" t="inlineStr"/>
@@ -20088,7 +20722,11 @@
         </is>
       </c>
       <c r="D159" t="inlineStr"/>
-      <c r="E159" t="inlineStr"/>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F159" t="inlineStr"/>
       <c r="G159" t="inlineStr"/>
       <c r="H159" t="inlineStr"/>
@@ -20210,7 +20848,11 @@
         </is>
       </c>
       <c r="D160" t="inlineStr"/>
-      <c r="E160" t="inlineStr"/>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>CALETA OLIVIA</t>
+        </is>
+      </c>
       <c r="F160" t="inlineStr"/>
       <c r="G160" t="inlineStr"/>
       <c r="H160" t="inlineStr"/>
@@ -20332,7 +20974,11 @@
         </is>
       </c>
       <c r="D161" t="inlineStr"/>
-      <c r="E161" t="inlineStr"/>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F161" t="inlineStr"/>
       <c r="G161" t="inlineStr"/>
       <c r="H161" t="inlineStr"/>
@@ -20454,7 +21100,11 @@
         </is>
       </c>
       <c r="D162" t="inlineStr"/>
-      <c r="E162" t="inlineStr"/>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F162" t="inlineStr"/>
       <c r="G162" t="inlineStr"/>
       <c r="H162" t="inlineStr"/>
@@ -20580,7 +21230,11 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E163" t="inlineStr"/>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>FACUNDO</t>
+        </is>
+      </c>
       <c r="F163" t="inlineStr"/>
       <c r="G163" t="inlineStr"/>
       <c r="H163" t="inlineStr"/>
@@ -20694,7 +21348,11 @@
         </is>
       </c>
       <c r="D164" t="inlineStr"/>
-      <c r="E164" t="inlineStr"/>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F164" t="inlineStr"/>
       <c r="G164" t="inlineStr"/>
       <c r="H164" t="inlineStr"/>
@@ -20812,7 +21470,11 @@
         </is>
       </c>
       <c r="D165" t="inlineStr"/>
-      <c r="E165" t="inlineStr"/>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>LAS HERAS</t>
+        </is>
+      </c>
       <c r="F165" t="inlineStr"/>
       <c r="G165" t="inlineStr"/>
       <c r="H165" t="inlineStr"/>
@@ -20934,7 +21596,11 @@
           <t>S/N</t>
         </is>
       </c>
-      <c r="E166" t="inlineStr"/>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>ALTO RIO SENGUER</t>
+        </is>
+      </c>
       <c r="F166" t="inlineStr"/>
       <c r="G166" t="inlineStr"/>
       <c r="H166" t="inlineStr"/>
@@ -21048,7 +21714,11 @@
         </is>
       </c>
       <c r="D167" t="inlineStr"/>
-      <c r="E167" t="inlineStr"/>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F167" t="inlineStr"/>
       <c r="G167" t="inlineStr"/>
       <c r="H167" t="inlineStr"/>
@@ -21166,7 +21836,11 @@
         </is>
       </c>
       <c r="D168" t="inlineStr"/>
-      <c r="E168" t="inlineStr"/>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F168" t="inlineStr"/>
       <c r="G168" t="inlineStr"/>
       <c r="H168" t="inlineStr"/>
@@ -21280,7 +21954,11 @@
         </is>
       </c>
       <c r="D169" t="inlineStr"/>
-      <c r="E169" t="inlineStr"/>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F169" t="inlineStr"/>
       <c r="G169" t="inlineStr"/>
       <c r="H169" t="inlineStr"/>
@@ -21394,7 +22072,11 @@
         </is>
       </c>
       <c r="D170" t="inlineStr"/>
-      <c r="E170" t="inlineStr"/>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>RADA TILLY</t>
+        </is>
+      </c>
       <c r="F170" t="inlineStr"/>
       <c r="G170" t="inlineStr"/>
       <c r="H170" t="inlineStr"/>
@@ -21508,7 +22190,11 @@
         </is>
       </c>
       <c r="D171" t="inlineStr"/>
-      <c r="E171" t="inlineStr"/>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F171" t="inlineStr"/>
       <c r="G171" t="inlineStr"/>
       <c r="H171" t="inlineStr"/>
@@ -21626,7 +22312,11 @@
         </is>
       </c>
       <c r="D172" t="inlineStr"/>
-      <c r="E172" t="inlineStr"/>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F172" t="inlineStr"/>
       <c r="G172" t="inlineStr"/>
       <c r="H172" t="inlineStr"/>
@@ -21744,7 +22434,11 @@
         </is>
       </c>
       <c r="D173" t="inlineStr"/>
-      <c r="E173" t="inlineStr"/>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F173" t="inlineStr"/>
       <c r="G173" t="inlineStr"/>
       <c r="H173" t="inlineStr"/>
@@ -21862,7 +22556,11 @@
         </is>
       </c>
       <c r="D174" t="inlineStr"/>
-      <c r="E174" t="inlineStr"/>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F174" t="inlineStr"/>
       <c r="G174" t="inlineStr"/>
       <c r="H174" t="inlineStr"/>
@@ -21980,7 +22678,11 @@
         </is>
       </c>
       <c r="D175" t="inlineStr"/>
-      <c r="E175" t="inlineStr"/>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F175" t="inlineStr"/>
       <c r="G175" t="inlineStr"/>
       <c r="H175" t="inlineStr"/>
@@ -22098,7 +22800,11 @@
         </is>
       </c>
       <c r="D176" t="inlineStr"/>
-      <c r="E176" t="inlineStr"/>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>CALETA OLIVIA</t>
+        </is>
+      </c>
       <c r="F176" t="inlineStr"/>
       <c r="G176" t="inlineStr"/>
       <c r="H176" t="inlineStr"/>
@@ -22212,7 +22918,11 @@
         </is>
       </c>
       <c r="D177" t="inlineStr"/>
-      <c r="E177" t="inlineStr"/>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>CALETA OLIVIA</t>
+        </is>
+      </c>
       <c r="F177" t="inlineStr"/>
       <c r="G177" t="inlineStr"/>
       <c r="H177" t="inlineStr"/>
@@ -22334,7 +23044,11 @@
           <t>241</t>
         </is>
       </c>
-      <c r="E178" t="inlineStr"/>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>COMODORO RIVADAVIA</t>
+        </is>
+      </c>
       <c r="F178" t="inlineStr"/>
       <c r="G178" t="inlineStr"/>
       <c r="H178" t="inlineStr"/>
@@ -22456,7 +23170,11 @@
           <t>S/N</t>
         </is>
       </c>
-      <c r="E179" t="inlineStr"/>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>ALTO RIO SENGUER</t>
+        </is>
+      </c>
       <c r="F179" t="inlineStr"/>
       <c r="G179" t="inlineStr"/>
       <c r="H179" t="inlineStr"/>
